--- a/Python/Projects/Advanced Projects/StudentPerformanceML/student/student-mat.xlsx
+++ b/Python/Projects/Advanced Projects/StudentPerformanceML/student/student-mat.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishi\Desktop\Programming\Python\Projects\StudentPerformanceML\student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishi\Desktop\Programming\Python\Projects\Advanced Projects\StudentPerformanceML\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C1DC60-4BDC-4322-BC74-61CB26085F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E90B93-7D92-476C-B083-78A412C58B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student-mat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -187,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -725,6 +738,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E79E2851-05E4-47CD-883C-81CBEB7994D3}" name="Table1" displayName="Table1" ref="A1:AG396" totalsRowShown="0">
+  <autoFilter ref="A1:AG396" xr:uid="{E79E2851-05E4-47CD-883C-81CBEB7994D3}"/>
+  <tableColumns count="33">
+    <tableColumn id="1" xr3:uid="{A66C403C-CC8B-42F2-A1FA-BDAE1CD3CC8A}" name="school"/>
+    <tableColumn id="2" xr3:uid="{D8FDFBB2-ACCF-4602-A859-2D52E32DC490}" name="sex"/>
+    <tableColumn id="3" xr3:uid="{B1E0FE6D-0088-4689-94E0-9FC9A0B92B0A}" name="age"/>
+    <tableColumn id="4" xr3:uid="{0F841727-3959-44E7-9CC5-38ABFD2191A6}" name="address"/>
+    <tableColumn id="5" xr3:uid="{36F7DE4A-B61D-4CEC-9049-C8BB262AB88E}" name="famsize"/>
+    <tableColumn id="6" xr3:uid="{8413011C-3B0A-49BD-B6E9-EE81F3E5420C}" name="Pstatus"/>
+    <tableColumn id="7" xr3:uid="{DD38D7BD-DDB8-4F03-A196-A644015B1A70}" name="Medu"/>
+    <tableColumn id="8" xr3:uid="{92FA1756-30AD-4197-9B86-17C094DB86A5}" name="Fedu"/>
+    <tableColumn id="9" xr3:uid="{52B96F30-395E-4374-B7F3-CEA06D93248E}" name="Mjob"/>
+    <tableColumn id="10" xr3:uid="{858A6E62-1941-45DB-A0F1-ECDDF8A54748}" name="Fjob"/>
+    <tableColumn id="11" xr3:uid="{472ADE0B-707B-440E-A20E-B5ED11724BD2}" name="reason"/>
+    <tableColumn id="12" xr3:uid="{9272BC8A-CCBE-4382-BE5E-837B45005387}" name="guardian"/>
+    <tableColumn id="13" xr3:uid="{B4632B05-8D04-4171-93EB-EC32A8A2A4A3}" name="traveltime"/>
+    <tableColumn id="14" xr3:uid="{D5E76185-54FF-4ACF-A879-CE408A46F1CC}" name="studytime"/>
+    <tableColumn id="15" xr3:uid="{81519AC8-A7B6-420B-BDD4-CCF47BD9CA70}" name="failures"/>
+    <tableColumn id="16" xr3:uid="{32F092D3-4A1C-46BD-A6FD-C44A014882BF}" name="schoolsup"/>
+    <tableColumn id="17" xr3:uid="{7B7D12CC-1B22-45EB-9CDB-64D04C84D968}" name="famsup"/>
+    <tableColumn id="18" xr3:uid="{64A93C21-6289-4159-A518-43A5B5813CC6}" name="paid"/>
+    <tableColumn id="19" xr3:uid="{406DD7B1-81C2-4698-AB43-4D432CBA34A2}" name="activities"/>
+    <tableColumn id="20" xr3:uid="{C8C125FC-1E3E-47F2-AF08-DED6B78D9A9D}" name="nursery"/>
+    <tableColumn id="21" xr3:uid="{949B877B-B2A5-412C-BB53-D1FE437F10C0}" name="higher"/>
+    <tableColumn id="22" xr3:uid="{0A47C766-A580-436E-BFAB-0743FB8EEF78}" name="internet"/>
+    <tableColumn id="23" xr3:uid="{E45F2A52-AC17-42C6-9683-81904D18C4C9}" name="romantic"/>
+    <tableColumn id="24" xr3:uid="{D439F20F-BBD0-44BC-9A44-414D52E99DA8}" name="famrel"/>
+    <tableColumn id="25" xr3:uid="{DB320C2B-AA17-4312-BC72-1C4E2D26CFF7}" name="freetime"/>
+    <tableColumn id="26" xr3:uid="{367D012D-7297-4D54-B103-55752168315E}" name="goout"/>
+    <tableColumn id="27" xr3:uid="{F730FD2F-6B3E-4DDF-8C51-0A760E1872D7}" name="Dalc"/>
+    <tableColumn id="28" xr3:uid="{D9F901B4-1ECF-4ABF-9BC7-83CB2A1962BA}" name="Walc"/>
+    <tableColumn id="29" xr3:uid="{7E99113F-AED3-4BC8-B504-A37C3E34D02C}" name="health"/>
+    <tableColumn id="30" xr3:uid="{5CE01E5C-6267-45B1-A183-85949981F4BC}" name="absences"/>
+    <tableColumn id="31" xr3:uid="{09402487-5FA4-4DA2-959A-98EB0B4560B7}" name="G1"/>
+    <tableColumn id="32" xr3:uid="{AA0DC0A1-9D6B-41A9-B285-22AAFB64B90D}" name="G2"/>
+    <tableColumn id="33" xr3:uid="{DB7F06B3-8F7A-4083-A7CE-E5A007C6234D}" name="G3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1021,14 +1076,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG396"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:AG396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" customWidth="1"/>
+    <col min="23" max="23" width="10.44140625" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="30" max="30" width="10.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -41026,7 +41098,12 @@
         <v>9</v>
       </c>
     </row>
+    <row r="398" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>